--- a/rai0214.xlsx
+++ b/rai0214.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Contents" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Notes" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="RAI0214" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="140">
   <si>
     <t xml:space="preserve">Peak crowding on a typical autumn weekday by city and train operator, annual from 2011</t>
   </si>
@@ -397,6 +398,54 @@
   <si>
     <t xml:space="preserve">South Western</t>
   </si>
+  <si>
+    <t xml:space="preserve">Long Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wide format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsStatus6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“AM peak arrivals (07:00-09:59): PIXC [note 1]”: {“type”: “observation”},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“obsStatus2”: {"from_template": "observation-status", “describes_observations”: “AM peak arrivals (07:00-09:59): PIXC [note 1]”}</t>
+  </si>
 </sst>
 </file>
 
@@ -512,12 +561,48 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFA2B8E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFE0C2CD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -635,7 +720,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -756,6 +841,58 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,16 +956,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -840,11 +977,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFA2B8E1"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -907,8 +1044,8 @@
   </sheetPr>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1198,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:I862"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26138,4 +26275,465 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0.00854910345382215</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>0.0461797462267502</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>0.00782198868730624</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>0.0890765697723706</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="31" t="n">
+        <v>42</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32" t="n">
+        <v>0.00854910345382215</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="34" t="n">
+        <v>0.0461797462267502</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="S7" s="41"/>
+      <c r="T7" s="36" t="n">
+        <v>0.00782198868730624</v>
+      </c>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37" t="n">
+        <v>0.0890765697723706</v>
+      </c>
+      <c r="W7" s="38"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="37"/>
+      <c r="W8" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>0.00854910345382215</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>0.0461797462267502</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>0.00782198868730624</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>0.0890765697723706</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/rai0214.xlsx
+++ b/rai0214.xlsx
@@ -1159,7 +1159,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1231,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:I862"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26284,8 +26284,8 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
